--- a/data/trans_orig/P1801-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1801-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4346908-9CA0-4026-97DC-E1D8ADD2662B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D638C4D4-A65A-44D9-AE7B-DBCB3A953C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F8C19DE0-D655-49CA-B3D9-1CBD1E419A6C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D4A0FB3D-835B-4457-B1C3-35858148358D}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="266">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>26,45%</t>
   </si>
   <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
   </si>
   <si>
     <t>40,89%</t>
   </si>
   <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
   </si>
   <si>
     <t>33,46%</t>
   </si>
   <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>73,55%</t>
   </si>
   <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
   </si>
   <si>
     <t>59,11%</t>
   </si>
   <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
   </si>
   <si>
     <t>66,54%</t>
   </si>
   <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>30,3%</t>
   </si>
   <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
   </si>
   <si>
     <t>49,28%</t>
   </si>
   <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
   </si>
   <si>
     <t>39,57%</t>
   </si>
   <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
   </si>
   <si>
     <t>69,7%</t>
   </si>
   <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
   </si>
   <si>
     <t>50,72%</t>
   </si>
   <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
   </si>
   <si>
     <t>60,43%</t>
   </si>
   <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -195,55 +195,55 @@
     <t>41,89%</t>
   </si>
   <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
   </si>
   <si>
     <t>52,04%</t>
   </si>
   <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
   </si>
   <si>
     <t>46,93%</t>
   </si>
   <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
   </si>
   <si>
     <t>58,11%</t>
   </si>
   <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
   </si>
   <si>
     <t>47,96%</t>
   </si>
   <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
   </si>
   <si>
     <t>53,07%</t>
   </si>
   <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -252,565 +252,589 @@
     <t>48,15%</t>
   </si>
   <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
   </si>
   <si>
     <t>52,03%</t>
   </si>
   <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
   </si>
   <si>
     <t>50,09%</t>
   </si>
   <si>
-    <t>47,14%</t>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
   </si>
   <si>
     <t>53,16%</t>
   </si>
   <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
   </si>
   <si>
     <t>46,84%</t>
   </si>
   <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
     <t>36,37%</t>
   </si>
   <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
   </si>
   <si>
     <t>39,56%</t>
   </si>
   <si>
-    <t>36,99%</t>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
   </si>
   <si>
     <t>68,57%</t>
   </si>
   <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
   </si>
   <si>
     <t>72,27%</t>
   </si>
   <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
   </si>
   <si>
     <t>70,78%</t>
   </si>
   <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
   </si>
   <si>
     <t>31,43%</t>
   </si>
   <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
   </si>
   <si>
     <t>27,73%</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
   </si>
   <si>
     <t>29,22%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
   </si>
   <si>
     <t>49,71%</t>
   </si>
   <si>
-    <t>47,75%</t>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
   </si>
   <si>
     <t>56,67%</t>
   </si>
   <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
   </si>
   <si>
     <t>53,39%</t>
   </si>
   <si>
-    <t>56,2%</t>
+    <t>51,81%</t>
   </si>
   <si>
     <t>50,29%</t>
   </si>
   <si>
-    <t>52,25%</t>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
   </si>
   <si>
     <t>43,33%</t>
   </si>
   <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
   </si>
   <si>
     <t>46,61%</t>
   </si>
   <si>
-    <t>43,8%</t>
+    <t>48,19%</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1401D0A6-AC7B-4383-9EC9-619868EAB043}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36259E5-01FF-49AA-9B0D-D57E14154706}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1838,7 +1862,7 @@
         <v>597</v>
       </c>
       <c r="N13" s="7">
-        <v>648768</v>
+        <v>648769</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1940,7 +1964,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2154,10 +2178,10 @@
         <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2172,13 +2196,13 @@
         <v>170861</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>170</v>
@@ -2187,13 +2211,13 @@
         <v>203756</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>346</v>
@@ -2202,13 +2226,13 @@
         <v>374617</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,13 +2300,13 @@
         <v>1578751</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>1878</v>
@@ -2291,13 +2315,13 @@
         <v>2024764</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>3397</v>
@@ -2306,13 +2330,13 @@
         <v>3603515</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,13 +2351,13 @@
         <v>1815599</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H23" s="7">
         <v>1460</v>
@@ -2342,13 +2366,13 @@
         <v>1519778</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="M23" s="7">
         <v>3172</v>
@@ -2441,7 +2465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66ED2CF8-ECBC-45D4-AF30-59DCD67E3052}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA5CAD5-DAE6-4F0E-A88A-1D00399CD329}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,10 +2902,10 @@
         <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>419</v>
@@ -2896,7 +2920,7 @@
         <v>183</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="M10" s="7">
         <v>654</v>
@@ -2905,13 +2929,13 @@
         <v>511450</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2950,13 @@
         <v>319157</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>426</v>
@@ -2941,13 +2965,13 @@
         <v>308325</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>736</v>
@@ -2956,13 +2980,13 @@
         <v>627482</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3054,13 @@
         <v>404639</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>662</v>
@@ -3045,13 +3069,13 @@
         <v>416035</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>1019</v>
@@ -3060,13 +3084,13 @@
         <v>820674</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3105,13 @@
         <v>318225</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>477</v>
@@ -3096,13 +3120,13 @@
         <v>329808</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>784</v>
@@ -3111,13 +3135,13 @@
         <v>648033</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3209,13 @@
         <v>343179</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>657</v>
@@ -3200,13 +3224,13 @@
         <v>379004</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>1050</v>
@@ -3215,13 +3239,13 @@
         <v>722183</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>60</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3260,13 @@
         <v>255947</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>343</v>
@@ -3251,13 +3275,13 @@
         <v>216668</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>612</v>
@@ -3266,13 +3290,13 @@
         <v>472615</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>51</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3364,13 @@
         <v>478479</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>1193</v>
@@ -3355,13 +3379,13 @@
         <v>740826</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>1921</v>
@@ -3370,13 +3394,13 @@
         <v>1219305</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,16 +3412,16 @@
         <v>300</v>
       </c>
       <c r="D20" s="7">
-        <v>219275</v>
+        <v>219276</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>512</v>
@@ -3406,13 +3430,13 @@
         <v>284185</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>812</v>
@@ -3421,13 +3445,13 @@
         <v>503460</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,7 +3463,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3495,13 +3519,13 @@
         <v>1681338</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>87</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>3211</v>
@@ -3510,13 +3534,13 @@
         <v>2154264</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>5059</v>
@@ -3525,13 +3549,13 @@
         <v>3835602</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>84</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>250</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3570,13 @@
         <v>1700670</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="H23" s="7">
         <v>2143</v>
@@ -3561,13 +3585,13 @@
         <v>1647404</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="M23" s="7">
         <v>3668</v>
@@ -3576,13 +3600,13 @@
         <v>3348074</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>257</v>
+        <v>58</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>74</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1801-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1801-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D638C4D4-A65A-44D9-AE7B-DBCB3A953C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21B2F89A-AB8D-4905-BA96-62387BC97672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D4A0FB3D-835B-4457-B1C3-35858148358D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{21385BD0-F684-4C03-87E5-8543B98A4CE5}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="266">
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2015 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="270">
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,28 +75,28 @@
     <t>26,45%</t>
   </si>
   <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
   </si>
   <si>
     <t>40,89%</t>
   </si>
   <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
   </si>
   <si>
     <t>33,46%</t>
   </si>
   <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>73,55%</t>
   </si>
   <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
   </si>
   <si>
     <t>59,11%</t>
   </si>
   <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
   </si>
   <si>
     <t>66,54%</t>
   </si>
   <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>30,3%</t>
   </si>
   <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
   </si>
   <si>
     <t>49,28%</t>
   </si>
   <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
   </si>
   <si>
     <t>39,57%</t>
   </si>
   <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
   </si>
   <si>
     <t>69,7%</t>
   </si>
   <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
   </si>
   <si>
     <t>50,72%</t>
   </si>
   <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
   </si>
   <si>
     <t>60,43%</t>
   </si>
   <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -195,643 +195,655 @@
     <t>41,89%</t>
   </si>
   <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
     <t>38,17%</t>
   </si>
   <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
   </si>
   <si>
     <t>44,17%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
   </si>
   <si>
     <t>48,19%</t>
@@ -1246,7 +1258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36259E5-01FF-49AA-9B0D-D57E14154706}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED976F7-515C-4B30-B638-A01D64655929}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1862,7 +1874,7 @@
         <v>597</v>
       </c>
       <c r="N13" s="7">
-        <v>648769</v>
+        <v>648768</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1964,7 +1976,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2178,10 +2190,10 @@
         <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,13 +2208,13 @@
         <v>170861</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>170</v>
@@ -2211,13 +2223,13 @@
         <v>203756</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>346</v>
@@ -2226,13 +2238,13 @@
         <v>374617</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,13 +2312,13 @@
         <v>1578751</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>1878</v>
@@ -2315,13 +2327,13 @@
         <v>2024764</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>3397</v>
@@ -2330,13 +2342,13 @@
         <v>3603515</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,13 +2363,13 @@
         <v>1815599</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H23" s="7">
         <v>1460</v>
@@ -2366,13 +2378,13 @@
         <v>1519778</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M23" s="7">
         <v>3172</v>
@@ -2465,7 +2477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA5CAD5-DAE6-4F0E-A88A-1D00399CD329}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F33D423-0A34-419B-9830-671557D84587}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2902,10 +2914,10 @@
         <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>419</v>
@@ -2914,13 +2926,13 @@
         <v>274419</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>654</v>
@@ -2929,13 +2941,13 @@
         <v>511450</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,13 +2962,13 @@
         <v>319157</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>426</v>
@@ -2965,13 +2977,13 @@
         <v>308325</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>736</v>
@@ -2980,13 +2992,13 @@
         <v>627482</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,13 +3066,13 @@
         <v>404639</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>662</v>
@@ -3069,13 +3081,13 @@
         <v>416035</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>1019</v>
@@ -3084,13 +3096,13 @@
         <v>820674</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,13 +3117,13 @@
         <v>318225</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>477</v>
@@ -3120,13 +3132,13 @@
         <v>329808</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>784</v>
@@ -3135,13 +3147,13 @@
         <v>648033</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,13 +3221,13 @@
         <v>343179</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>657</v>
@@ -3224,13 +3236,13 @@
         <v>379004</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>1050</v>
@@ -3239,13 +3251,13 @@
         <v>722183</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,13 +3272,13 @@
         <v>255947</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>343</v>
@@ -3275,13 +3287,13 @@
         <v>216668</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>612</v>
@@ -3290,13 +3302,13 @@
         <v>472615</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,13 +3376,13 @@
         <v>478479</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>1193</v>
@@ -3379,13 +3391,13 @@
         <v>740826</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>1921</v>
@@ -3394,13 +3406,13 @@
         <v>1219305</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,13 +3427,13 @@
         <v>219276</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>512</v>
@@ -3430,13 +3442,13 @@
         <v>284185</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>812</v>
@@ -3445,13 +3457,13 @@
         <v>503460</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,13 +3531,13 @@
         <v>1681338</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>3211</v>
@@ -3534,13 +3546,13 @@
         <v>2154264</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>5059</v>
@@ -3549,13 +3561,13 @@
         <v>3835602</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>68</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,13 +3582,13 @@
         <v>1700670</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>2143</v>
@@ -3585,13 +3597,13 @@
         <v>1647404</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>3668</v>
@@ -3600,13 +3612,13 @@
         <v>3348074</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>58</v>
+        <v>268</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1801-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1801-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D8FF4DD-8959-4F9F-BEB6-09183BA9B312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FCD15EB-FC1F-461C-B295-ECC5DCB9703E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{545EB276-5509-46F5-93AA-F9FFE95B49BF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C88908A7-C490-4382-9ABB-E4895CB71BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="396">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>991.0</t>
@@ -110,7 +110,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>99,73%</t>
@@ -131,7 +131,7 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>99,69%</t>
@@ -146,7 +146,7 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -155,7 +155,7 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>99,51%</t>
@@ -176,267 +176,309 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
     <t>48,15%</t>
   </si>
   <si>
@@ -548,442 +590,583 @@
     <t>41,35%</t>
   </si>
   <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
   </si>
   <si>
     <t>73,81%</t>
   </si>
   <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
   </si>
   <si>
     <t>26,19%</t>
   </si>
   <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un laboratorio de análisis en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
   </si>
   <si>
     <t>0,04%</t>
@@ -992,46 +1175,58 @@
     <t>0,02%</t>
   </si>
   <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
   </si>
 </sst>
 </file>
@@ -1443,8 +1638,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566E211D-9759-4C8F-9E40-C2BB341FA04F}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752AF742-82DC-4C30-91A4-BD75B239C0A5}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2591,10 +2786,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D24" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>11</v>
@@ -2606,31 +2801,31 @@
         <v>13</v>
       </c>
       <c r="H24" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I24" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M24" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N24" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>13</v>
@@ -2654,7 +2849,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2669,7 +2864,7 @@
         <v>18</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2684,7 +2879,7 @@
         <v>18</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,7 +2900,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2720,7 +2915,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2735,7 +2930,7 @@
         <v>18</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,10 +2939,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -2759,10 +2954,10 @@
         <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -2774,10 +2969,10 @@
         <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -2791,52 +2986,52 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3214</v>
+        <v>220</v>
       </c>
       <c r="D28" s="7">
-        <v>3276544</v>
+        <v>209883</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="7">
-        <v>3297</v>
+        <v>290</v>
       </c>
       <c r="I28" s="7">
-        <v>3379198</v>
+        <v>333908</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M28" s="7">
-        <v>6511</v>
+        <v>510</v>
       </c>
       <c r="N28" s="7">
-        <v>6655740</v>
+        <v>543791</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -2860,7 +3055,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2875,7 +3070,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2890,7 +3085,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,7 +3106,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2926,7 +3121,7 @@
         <v>18</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2941,7 +3136,7 @@
         <v>18</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,63 +3145,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
+        <v>510</v>
+      </c>
+      <c r="N31" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
         <v>3214</v>
       </c>
-      <c r="D31" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D32" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="7">
         <v>3297</v>
       </c>
-      <c r="I31" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I32" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="7">
         <v>6511</v>
       </c>
-      <c r="N31" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="N32" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I35" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="7">
+        <v>6511</v>
+      </c>
+      <c r="N35" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3019,8 +3421,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2541D090-B2C7-40AD-9336-F4AFF0F3EDE4}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3122EAF6-7090-4212-A9E8-9EE07DFCEBF2}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3036,7 +3438,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3146,7 +3548,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3161,7 +3563,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -3176,7 +3578,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3200,7 +3602,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3215,7 +3617,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3230,7 +3632,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,7 +3653,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3266,7 +3668,7 @@
         <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3281,7 +3683,7 @@
         <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,7 +3769,7 @@
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -3421,7 +3823,7 @@
         <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3472,7 +3874,7 @@
         <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3764,7 +4166,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3779,7 +4181,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3794,7 +4196,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3818,7 +4220,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3833,7 +4235,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3848,7 +4250,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,7 +4271,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3884,7 +4286,7 @@
         <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3899,7 +4301,7 @@
         <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,7 +4387,7 @@
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -4039,7 +4441,7 @@
         <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4090,7 +4492,7 @@
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4167,46 +4569,46 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D24" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I24" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M24" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N24" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>13</v>
@@ -4230,7 +4632,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4245,7 +4647,7 @@
         <v>18</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -4260,7 +4662,7 @@
         <v>18</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,7 +4683,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4296,7 +4698,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4311,7 +4713,7 @@
         <v>18</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,10 +4722,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -4335,10 +4737,10 @@
         <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I27" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -4350,10 +4752,10 @@
         <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N27" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -4367,52 +4769,52 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3209</v>
+        <v>222</v>
       </c>
       <c r="D28" s="7">
-        <v>3426779</v>
+        <v>249851</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="7">
-        <v>3298</v>
+        <v>350</v>
       </c>
       <c r="I28" s="7">
-        <v>3558309</v>
+        <v>388979</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M28" s="7">
-        <v>6507</v>
+        <v>572</v>
       </c>
       <c r="N28" s="7">
-        <v>6985088</v>
+        <v>638830</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -4436,7 +4838,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4451,7 +4853,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -4466,7 +4868,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,7 +4889,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -4502,7 +4904,7 @@
         <v>18</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -4517,7 +4919,7 @@
         <v>18</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,63 +4928,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
+        <v>572</v>
+      </c>
+      <c r="N31" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
         <v>3209</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D32" s="7">
         <v>3426779</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="7">
         <v>3298</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I32" s="7">
         <v>3558309</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="7">
         <v>6507</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N32" s="7">
         <v>6985088</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="O32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
+        <v>3209</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3426779</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="7">
+        <v>3298</v>
+      </c>
+      <c r="I35" s="7">
+        <v>3558309</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="7">
+        <v>6507</v>
+      </c>
+      <c r="N35" s="7">
+        <v>6985088</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4595,8 +5204,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27603EB2-EB81-431F-A20C-90ABCF9D37EC}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC5E80D-F8C2-4F42-8DE4-F53469E78F20}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4612,7 +5221,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4740,7 +5349,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4770,13 +5379,13 @@
         <v>110963</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H5" s="7">
         <v>165</v>
@@ -4785,13 +5394,13 @@
         <v>161829</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="M5" s="7">
         <v>267</v>
@@ -4800,13 +5409,13 @@
         <v>272792</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +5430,13 @@
         <v>308500</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="H6" s="7">
         <v>239</v>
@@ -4836,13 +5445,13 @@
         <v>233926</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="M6" s="7">
         <v>530</v>
@@ -4851,13 +5460,13 @@
         <v>542426</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,7 +5540,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4946,7 +5555,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4961,7 +5570,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +5585,13 @@
         <v>178919</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="H9" s="7">
         <v>281</v>
@@ -4991,13 +5600,13 @@
         <v>277686</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="M9" s="7">
         <v>452</v>
@@ -5006,13 +5615,13 @@
         <v>456605</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5636,13 @@
         <v>411577</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>298</v>
@@ -5042,13 +5651,13 @@
         <v>285858</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="M10" s="7">
         <v>694</v>
@@ -5057,13 +5666,13 @@
         <v>697435</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,7 +5746,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5182,13 +5791,13 @@
         <v>280302</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="H13" s="7">
         <v>342</v>
@@ -5197,13 +5806,13 @@
         <v>344158</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
         <v>610</v>
@@ -5212,13 +5821,13 @@
         <v>624461</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,13 +5842,13 @@
         <v>388795</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="H14" s="7">
         <v>323</v>
@@ -5248,13 +5857,13 @@
         <v>317228</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="M14" s="7">
         <v>693</v>
@@ -5263,13 +5872,13 @@
         <v>706022</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,7 +5952,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5373,7 +5982,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5997,13 @@
         <v>311066</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="H17" s="7">
         <v>316</v>
@@ -5403,13 +6012,13 @@
         <v>337702</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M17" s="7">
         <v>597</v>
@@ -5418,13 +6027,13 @@
         <v>648768</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,13 +6048,13 @@
         <v>334982</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="H18" s="7">
         <v>286</v>
@@ -5454,13 +6063,13 @@
         <v>311375</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="M18" s="7">
         <v>587</v>
@@ -5469,13 +6078,13 @@
         <v>646357</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,7 +6158,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5564,7 +6173,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5579,7 +6188,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,13 +6203,13 @@
         <v>277033</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="H21" s="7">
         <v>289</v>
@@ -5609,13 +6218,13 @@
         <v>329213</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="M21" s="7">
         <v>535</v>
@@ -5624,13 +6233,13 @@
         <v>606246</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +6254,13 @@
         <v>200885</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="H22" s="7">
         <v>144</v>
@@ -5660,13 +6269,13 @@
         <v>167636</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M22" s="7">
         <v>322</v>
@@ -5675,13 +6284,13 @@
         <v>368521</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5755,7 +6364,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5770,7 +6379,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>34</v>
+        <v>184</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5785,7 +6394,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,49 +6403,49 @@
         <v>16</v>
       </c>
       <c r="C25" s="7">
-        <v>451</v>
+        <v>223</v>
       </c>
       <c r="D25" s="7">
-        <v>420467</v>
+        <v>226614</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="H25" s="7">
-        <v>485</v>
+        <v>268</v>
       </c>
       <c r="I25" s="7">
-        <v>574175</v>
+        <v>286171</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="M25" s="7">
-        <v>936</v>
+        <v>491</v>
       </c>
       <c r="N25" s="7">
-        <v>994642</v>
+        <v>512784</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,49 +6454,49 @@
         <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="D26" s="7">
-        <v>170861</v>
+        <v>107716</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="H26" s="7">
-        <v>170</v>
+        <v>86</v>
       </c>
       <c r="I26" s="7">
-        <v>203756</v>
+        <v>91591</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="M26" s="7">
-        <v>346</v>
+        <v>188</v>
       </c>
       <c r="N26" s="7">
-        <v>374617</v>
+        <v>199308</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,10 +6505,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -5911,10 +6520,10 @@
         <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I27" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -5926,10 +6535,10 @@
         <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N27" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -5943,7 +6552,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5961,7 +6570,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5976,7 +6585,7 @@
         <v>18</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5991,7 +6600,7 @@
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,49 +6609,49 @@
         <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>1519</v>
+        <v>228</v>
       </c>
       <c r="D29" s="7">
-        <v>1578751</v>
+        <v>193853</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
-        <v>1878</v>
+        <v>217</v>
       </c>
       <c r="I29" s="7">
-        <v>2024764</v>
+        <v>288005</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
-        <v>3397</v>
+        <v>445</v>
       </c>
       <c r="N29" s="7">
-        <v>3603515</v>
+        <v>481857</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,49 +6660,49 @@
         <v>22</v>
       </c>
       <c r="C30" s="7">
-        <v>1712</v>
+        <v>74</v>
       </c>
       <c r="D30" s="7">
-        <v>1815599</v>
+        <v>63145</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="H30" s="7">
-        <v>1460</v>
+        <v>84</v>
       </c>
       <c r="I30" s="7">
-        <v>1519778</v>
+        <v>112164</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="M30" s="7">
-        <v>3172</v>
+        <v>158</v>
       </c>
       <c r="N30" s="7">
-        <v>3335377</v>
+        <v>175310</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6102,63 +6711,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
+        <v>301</v>
+      </c>
+      <c r="I31" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
+        <v>603</v>
+      </c>
+      <c r="N31" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1519</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1578751</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1878</v>
+      </c>
+      <c r="I33" s="7">
+        <v>2024764</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M33" s="7">
+        <v>3397</v>
+      </c>
+      <c r="N33" s="7">
+        <v>3603515</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1712</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1815599</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1460</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1519778</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M34" s="7">
+        <v>3172</v>
+      </c>
+      <c r="N34" s="7">
+        <v>3335377</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3231</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3394350</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="7">
         <v>3338</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3544542</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="7">
         <v>6569</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6938892</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="O35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6171,8 +6987,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2B722C-7318-42A1-B640-5ED330B27400}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF61167-B696-415F-AA61-64B272B03759}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6188,7 +7004,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6301,7 +7117,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6316,7 +7132,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6331,7 +7147,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,46 +7159,46 @@
         <v>32</v>
       </c>
       <c r="D5" s="7">
-        <v>73240</v>
+        <v>85304</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>82</v>
       </c>
       <c r="I5" s="7">
-        <v>140675</v>
+        <v>127197</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>114</v>
       </c>
       <c r="N5" s="7">
-        <v>213915</v>
+        <v>212500</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6394,46 +7210,46 @@
         <v>140</v>
       </c>
       <c r="D6" s="7">
-        <v>304439</v>
+        <v>314683</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="H6" s="7">
         <v>124</v>
       </c>
       <c r="I6" s="7">
-        <v>214122</v>
+        <v>185840</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="M6" s="7">
         <v>264</v>
       </c>
       <c r="N6" s="7">
-        <v>518560</v>
+        <v>500524</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,7 +7261,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -6460,7 +7276,7 @@
         <v>206</v>
       </c>
       <c r="I7" s="7">
-        <v>354797</v>
+        <v>313037</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -6475,7 +7291,7 @@
         <v>378</v>
       </c>
       <c r="N7" s="7">
-        <v>732475</v>
+        <v>713024</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -6507,7 +7323,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>225</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6522,7 +7338,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6537,7 +7353,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6549,46 +7365,46 @@
         <v>103</v>
       </c>
       <c r="D9" s="7">
-        <v>144770</v>
+        <v>146652</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="H9" s="7">
         <v>198</v>
       </c>
       <c r="I9" s="7">
-        <v>203306</v>
+        <v>190446</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="M9" s="7">
         <v>301</v>
       </c>
       <c r="N9" s="7">
-        <v>348076</v>
+        <v>337098</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6600,46 +7416,46 @@
         <v>199</v>
       </c>
       <c r="D10" s="7">
-        <v>283626</v>
+        <v>276895</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="H10" s="7">
         <v>261</v>
       </c>
       <c r="I10" s="7">
-        <v>294297</v>
+        <v>320137</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="M10" s="7">
         <v>460</v>
       </c>
       <c r="N10" s="7">
-        <v>577923</v>
+        <v>597032</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6651,7 +7467,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -6666,7 +7482,7 @@
         <v>459</v>
       </c>
       <c r="I11" s="7">
-        <v>497603</v>
+        <v>510583</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -6681,7 +7497,7 @@
         <v>761</v>
       </c>
       <c r="N11" s="7">
-        <v>925999</v>
+        <v>934130</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -6713,7 +7529,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6728,7 +7544,7 @@
         <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6743,7 +7559,7 @@
         <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6755,46 +7571,46 @@
         <v>235</v>
       </c>
       <c r="D13" s="7">
-        <v>237031</v>
+        <v>233496</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
         <v>419</v>
       </c>
       <c r="I13" s="7">
-        <v>274419</v>
+        <v>259564</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>654</v>
       </c>
       <c r="N13" s="7">
-        <v>511450</v>
+        <v>493060</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6806,46 +7622,46 @@
         <v>310</v>
       </c>
       <c r="D14" s="7">
-        <v>319157</v>
+        <v>301561</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>426</v>
       </c>
       <c r="I14" s="7">
-        <v>308325</v>
+        <v>282223</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>202</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="M14" s="7">
         <v>736</v>
       </c>
       <c r="N14" s="7">
-        <v>627482</v>
+        <v>583784</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>299</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6857,7 +7673,7 @@
         <v>545</v>
       </c>
       <c r="D15" s="7">
-        <v>556188</v>
+        <v>535057</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -6872,7 +7688,7 @@
         <v>845</v>
       </c>
       <c r="I15" s="7">
-        <v>582744</v>
+        <v>541787</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -6887,7 +7703,7 @@
         <v>1390</v>
       </c>
       <c r="N15" s="7">
-        <v>1138932</v>
+        <v>1076844</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -6934,7 +7750,7 @@
         <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6949,7 +7765,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6961,46 +7777,46 @@
         <v>357</v>
       </c>
       <c r="D17" s="7">
-        <v>404639</v>
+        <v>589579</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="H17" s="7">
         <v>662</v>
       </c>
       <c r="I17" s="7">
-        <v>416035</v>
+        <v>386843</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="M17" s="7">
         <v>1019</v>
       </c>
       <c r="N17" s="7">
-        <v>820674</v>
+        <v>976423</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7012,46 +7828,46 @@
         <v>307</v>
       </c>
       <c r="D18" s="7">
-        <v>318225</v>
+        <v>297164</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="H18" s="7">
         <v>477</v>
       </c>
       <c r="I18" s="7">
-        <v>329808</v>
+        <v>324737</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="M18" s="7">
         <v>784</v>
       </c>
       <c r="N18" s="7">
-        <v>648033</v>
+        <v>621900</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,7 +7879,7 @@
         <v>664</v>
       </c>
       <c r="D19" s="7">
-        <v>722864</v>
+        <v>886743</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -7078,7 +7894,7 @@
         <v>1139</v>
       </c>
       <c r="I19" s="7">
-        <v>745843</v>
+        <v>711580</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -7093,7 +7909,7 @@
         <v>1803</v>
       </c>
       <c r="N19" s="7">
-        <v>1468707</v>
+        <v>1598323</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -7155,7 +7971,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7167,46 +7983,46 @@
         <v>393</v>
       </c>
       <c r="D21" s="7">
-        <v>343179</v>
+        <v>324262</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="H21" s="7">
         <v>657</v>
       </c>
       <c r="I21" s="7">
-        <v>379004</v>
+        <v>349035</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="M21" s="7">
         <v>1050</v>
       </c>
       <c r="N21" s="7">
-        <v>722183</v>
+        <v>673297</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>123</v>
+        <v>329</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,46 +8034,46 @@
         <v>269</v>
       </c>
       <c r="D22" s="7">
-        <v>255947</v>
+        <v>235981</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="H22" s="7">
         <v>343</v>
       </c>
       <c r="I22" s="7">
-        <v>216668</v>
+        <v>197573</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="M22" s="7">
         <v>612</v>
       </c>
       <c r="N22" s="7">
-        <v>472615</v>
+        <v>433554</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7269,7 +8085,7 @@
         <v>662</v>
       </c>
       <c r="D23" s="7">
-        <v>599126</v>
+        <v>560243</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -7284,7 +8100,7 @@
         <v>1000</v>
       </c>
       <c r="I23" s="7">
-        <v>595672</v>
+        <v>546608</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -7299,7 +8115,7 @@
         <v>1662</v>
       </c>
       <c r="N23" s="7">
-        <v>1194798</v>
+        <v>1106851</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -7331,7 +8147,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7346,7 +8162,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7361,7 +8177,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,49 +8186,49 @@
         <v>16</v>
       </c>
       <c r="C25" s="7">
-        <v>728</v>
+        <v>381</v>
       </c>
       <c r="D25" s="7">
-        <v>478479</v>
+        <v>239096</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="H25" s="7">
-        <v>1193</v>
+        <v>559</v>
       </c>
       <c r="I25" s="7">
-        <v>740826</v>
+        <v>473547</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="M25" s="7">
-        <v>1921</v>
+        <v>940</v>
       </c>
       <c r="N25" s="7">
-        <v>1219305</v>
+        <v>712643</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7421,49 +8237,49 @@
         <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="D26" s="7">
-        <v>219275</v>
+        <v>129069</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="H26" s="7">
-        <v>512</v>
+        <v>267</v>
       </c>
       <c r="I26" s="7">
-        <v>284185</v>
+        <v>134414</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="M26" s="7">
-        <v>812</v>
+        <v>456</v>
       </c>
       <c r="N26" s="7">
-        <v>503460</v>
+        <v>263484</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7472,10 +8288,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -7487,10 +8303,10 @@
         <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>1705</v>
+        <v>826</v>
       </c>
       <c r="I27" s="7">
-        <v>1025011</v>
+        <v>607961</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -7502,10 +8318,10 @@
         <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>2733</v>
+        <v>1396</v>
       </c>
       <c r="N27" s="7">
-        <v>1722765</v>
+        <v>976127</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -7519,7 +8335,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7537,7 +8353,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>52</v>
+        <v>262</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7552,7 +8368,7 @@
         <v>18</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>315</v>
+        <v>68</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7567,7 +8383,7 @@
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7576,49 +8392,49 @@
         <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>1848</v>
+        <v>347</v>
       </c>
       <c r="D29" s="7">
-        <v>1681338</v>
+        <v>208433</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>149</v>
+        <v>360</v>
       </c>
       <c r="H29" s="7">
-        <v>3211</v>
+        <v>634</v>
       </c>
       <c r="I29" s="7">
-        <v>2154264</v>
+        <v>301622</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="M29" s="7">
-        <v>5059</v>
+        <v>981</v>
       </c>
       <c r="N29" s="7">
-        <v>3835602</v>
+        <v>510055</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>146</v>
+        <v>365</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7627,49 +8443,49 @@
         <v>22</v>
       </c>
       <c r="C30" s="7">
-        <v>1525</v>
+        <v>111</v>
       </c>
       <c r="D30" s="7">
-        <v>1700670</v>
+        <v>74326</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>139</v>
+        <v>368</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="H30" s="7">
-        <v>2143</v>
+        <v>245</v>
       </c>
       <c r="I30" s="7">
-        <v>1647404</v>
+        <v>123127</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="M30" s="7">
-        <v>3668</v>
+        <v>356</v>
       </c>
       <c r="N30" s="7">
-        <v>3348074</v>
+        <v>197453</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>136</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7678,63 +8494,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>458</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
+        <v>879</v>
+      </c>
+      <c r="I31" s="7">
+        <v>424749</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N31" s="7">
+        <v>707508</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1848</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1826823</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H33" s="7">
+        <v>3211</v>
+      </c>
+      <c r="I33" s="7">
+        <v>2088253</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="M33" s="7">
+        <v>5059</v>
+      </c>
+      <c r="N33" s="7">
+        <v>3915075</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1525</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1629678</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="H34" s="7">
+        <v>2143</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1568052</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="M34" s="7">
+        <v>3668</v>
+      </c>
+      <c r="N34" s="7">
+        <v>3197731</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3373</v>
       </c>
-      <c r="D31" s="7">
-        <v>3382008</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3456501</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="7">
         <v>5354</v>
       </c>
-      <c r="I31" s="7">
-        <v>3801668</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3656305</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="7">
         <v>8727</v>
       </c>
-      <c r="N31" s="7">
-        <v>7183676</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="N35" s="7">
+        <v>7112806</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
